--- a/заказы/филиалы и опт/2024/03,24/22,03,24 Ост СЫР филиалы/заказ СЫРЫ 26.03.24.xlsx
+++ b/заказы/филиалы и опт/2024/03,24/22,03,24 Ост СЫР филиалы/заказ СЫРЫ 26.03.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\22,03,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E9AB7-242A-4BFB-BD67-AB29FBD7B122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22DD28D-0E61-4D1C-A08F-2C9C603CC682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$1:$I$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$1:$I$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$2:$I$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$2:$J$50</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="73">
   <si>
     <t>Артикул</t>
   </si>
@@ -239,12 +239,30 @@
   </si>
   <si>
     <t>Наименование Контрагента: ООО КСК ТРЕЙД</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>разница</t>
+  </si>
+  <si>
+    <t>Отгрузил завод</t>
+  </si>
+  <si>
+    <t>в телефонном режиме</t>
+  </si>
+  <si>
+    <t>недогруз</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -357,7 +375,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +397,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -555,6 +579,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -927,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -945,10 +975,12 @@
     <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="49"/>
+    <col min="12" max="12" width="24.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25">
+    <row r="1" spans="1:12" ht="38.25">
       <c r="B1" s="16" t="s">
         <v>67</v>
       </c>
@@ -963,8 +995,14 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -992,8 +1030,11 @@
       <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>6159826</v>
       </c>
@@ -1017,8 +1058,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="51">
+        <f>D3+E3-J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10">
         <v>5038435</v>
       </c>
@@ -1042,8 +1087,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="52">
+        <v>1110</v>
+      </c>
+      <c r="K4" s="50">
+        <f>D4+E4-J4</f>
+        <v>-1110</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="43">
         <v>8785204</v>
       </c>
@@ -1069,8 +1124,12 @@
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="51">
+        <f t="shared" ref="K5:K49" si="0">D5+E5-J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <v>6159796</v>
       </c>
@@ -1094,8 +1153,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="43">
         <v>5038459</v>
       </c>
@@ -1121,8 +1184,15 @@
         <v>378</v>
       </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="K7" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="46">
         <v>5038596</v>
       </c>
@@ -1150,8 +1220,15 @@
       <c r="I8" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>260</v>
+      </c>
+      <c r="K8" s="51">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="41">
         <v>5521103</v>
       </c>
@@ -1175,8 +1252,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="45">
         <v>5038411</v>
       </c>
@@ -1202,8 +1283,15 @@
         <v>360</v>
       </c>
       <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>1990</v>
+      </c>
+      <c r="K10" s="51">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="38">
         <v>5038572</v>
       </c>
@@ -1229,8 +1317,12 @@
       <c r="I11" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="24">
         <v>6159833</v>
       </c>
@@ -1254,8 +1346,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="30">
         <v>3350128</v>
       </c>
@@ -1281,8 +1377,15 @@
         <v>340.8</v>
       </c>
       <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <v>1704</v>
+      </c>
+      <c r="K13" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="24">
         <v>2700001</v>
       </c>
@@ -1308,8 +1411,12 @@
       <c r="I14" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="24">
         <v>6159819</v>
       </c>
@@ -1333,8 +1440,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="24">
         <v>99876543</v>
       </c>
@@ -1358,8 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="24">
         <v>6159802</v>
       </c>
@@ -1383,8 +1498,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="24">
         <v>99876550</v>
       </c>
@@ -1410,8 +1529,15 @@
         <v>220.8</v>
       </c>
       <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1">
+        <v>1104</v>
+      </c>
+      <c r="K18" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="24">
         <v>6159949</v>
       </c>
@@ -1437,8 +1563,12 @@
       <c r="I19" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="24">
         <v>6159901</v>
       </c>
@@ -1466,8 +1596,15 @@
       <c r="I20" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1">
+        <v>2317</v>
+      </c>
+      <c r="K20" s="51">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="24">
         <v>99876321</v>
       </c>
@@ -1491,8 +1628,12 @@
         <v>0</v>
       </c>
       <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="24">
         <v>99876352</v>
       </c>
@@ -1516,8 +1657,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1">
+      <c r="K22" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1">
       <c r="A23" s="24">
         <v>783798</v>
       </c>
@@ -1543,8 +1688,15 @@
         <v>198</v>
       </c>
       <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1">
+      <c r="J23" s="11">
+        <v>972</v>
+      </c>
+      <c r="K23" s="51">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1">
       <c r="A24" s="24">
         <v>783811</v>
       </c>
@@ -1572,8 +1724,18 @@
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1">
+      <c r="J24" s="48">
+        <v>504</v>
+      </c>
+      <c r="K24" s="53">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1">
       <c r="A25" s="24">
         <v>783804</v>
       </c>
@@ -1599,8 +1761,15 @@
         <v>118.80000000000001</v>
       </c>
       <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1">
+      <c r="J25" s="11">
+        <v>594</v>
+      </c>
+      <c r="K25" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1">
       <c r="A26" s="24">
         <v>783828</v>
       </c>
@@ -1628,8 +1797,18 @@
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1">
+      <c r="J26" s="48">
+        <v>797</v>
+      </c>
+      <c r="K26" s="53">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1">
       <c r="A27" s="38">
         <v>8784474</v>
       </c>
@@ -1655,8 +1834,12 @@
       <c r="I27" s="42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1">
+      <c r="K27" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1">
       <c r="A28" s="24">
         <v>9877076</v>
       </c>
@@ -1671,19 +1854,26 @@
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="35">
-        <f t="shared" ref="F28:F36" si="0">D28/C28</f>
+        <f t="shared" ref="F28:F36" si="1">D28/C28</f>
         <v>62</v>
       </c>
       <c r="G28" s="25">
         <v>0.19</v>
       </c>
       <c r="H28" s="28">
-        <f t="shared" ref="H28:H36" si="1">G28*D28</f>
+        <f t="shared" ref="H28:H36" si="2">G28*D28</f>
         <v>94.24</v>
       </c>
       <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1">
+      <c r="J28" s="11">
+        <v>496</v>
+      </c>
+      <c r="K28" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1">
       <c r="A29" s="24">
         <v>8444194</v>
       </c>
@@ -1698,19 +1888,29 @@
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="G29" s="25">
         <v>0.1</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.800000000000011</v>
       </c>
       <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1">
+      <c r="J29" s="48">
+        <v>396</v>
+      </c>
+      <c r="K29" s="53">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1">
       <c r="A30" s="24">
         <v>8444187</v>
       </c>
@@ -1725,19 +1925,26 @@
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G30" s="25">
         <v>0.1</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1">
+      <c r="J30" s="11">
+        <v>600</v>
+      </c>
+      <c r="K30" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="11" customFormat="1">
       <c r="A31" s="24">
         <v>8444163</v>
       </c>
@@ -1752,19 +1959,26 @@
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G31" s="25">
         <v>0.1</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1">
+      <c r="J31" s="11">
+        <v>560</v>
+      </c>
+      <c r="K31" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="11" customFormat="1">
       <c r="A32" s="24">
         <v>8444170</v>
       </c>
@@ -1779,19 +1993,27 @@
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G32" s="25">
         <v>0.1</v>
       </c>
       <c r="H32" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.200000000000001</v>
       </c>
       <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1">
+      <c r="J32" s="48"/>
+      <c r="K32" s="53">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1">
       <c r="A33" s="24">
         <v>9988377</v>
       </c>
@@ -1804,19 +2026,23 @@
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="25">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1">
+      <c r="K33" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1">
       <c r="A34" s="24">
         <v>9988391</v>
       </c>
@@ -1831,19 +2057,26 @@
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="G34" s="25">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.12</v>
       </c>
       <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1">
+      <c r="J34" s="11">
+        <v>608</v>
+      </c>
+      <c r="K34" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1">
       <c r="A35" s="24">
         <v>5034819</v>
       </c>
@@ -1856,19 +2089,23 @@
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="25">
         <v>0.18</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1">
+      <c r="K35" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1">
       <c r="A36" s="24">
         <v>5034864</v>
       </c>
@@ -1881,19 +2118,23 @@
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="25">
         <v>0.18</v>
       </c>
       <c r="H36" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" s="11" customFormat="1">
+      <c r="K36" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1">
       <c r="A37" s="24">
         <v>5037308</v>
       </c>
@@ -1919,8 +2160,12 @@
       <c r="I37" s="35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1">
+      <c r="K37" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1">
       <c r="A38" s="38">
         <v>2981244</v>
       </c>
@@ -1946,8 +2191,12 @@
       <c r="I38" s="35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="11" customFormat="1">
+      <c r="K38" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1">
       <c r="A39" s="24">
         <v>3402729</v>
       </c>
@@ -1971,8 +2220,12 @@
         <v>0</v>
       </c>
       <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1">
+      <c r="K39" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1">
       <c r="A40" s="24">
         <v>3402712</v>
       </c>
@@ -1996,8 +2249,12 @@
         <v>0</v>
       </c>
       <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1">
+      <c r="K40" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1">
       <c r="A41" s="24">
         <v>8785198</v>
       </c>
@@ -2023,8 +2280,12 @@
       <c r="I41" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1">
+      <c r="K41" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1">
       <c r="A42" s="24">
         <v>8785211</v>
       </c>
@@ -2050,8 +2311,12 @@
       <c r="I42" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1">
+      <c r="K42" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1">
       <c r="A43" s="24">
         <v>8785228</v>
       </c>
@@ -2077,8 +2342,12 @@
       <c r="I43" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="11" customFormat="1">
+      <c r="K43" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1">
       <c r="A44" s="38">
         <v>9988452</v>
       </c>
@@ -2102,8 +2371,12 @@
         <v>0</v>
       </c>
       <c r="I44" s="35"/>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1">
+      <c r="K44" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1">
       <c r="A45" s="38">
         <v>9988476</v>
       </c>
@@ -2127,8 +2400,12 @@
         <v>0</v>
       </c>
       <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" s="11" customFormat="1">
+      <c r="K45" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1">
       <c r="A46" s="38">
         <v>9988438</v>
       </c>
@@ -2152,8 +2429,12 @@
         <v>0</v>
       </c>
       <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" s="11" customFormat="1">
+      <c r="K46" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1">
       <c r="A47" s="38">
         <v>9988445</v>
       </c>
@@ -2179,8 +2460,15 @@
         <v>109.44</v>
       </c>
       <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" s="11" customFormat="1">
+      <c r="J47" s="11">
+        <v>592</v>
+      </c>
+      <c r="K47" s="51">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1">
       <c r="A48" s="38">
         <v>8785259</v>
       </c>
@@ -2206,8 +2494,12 @@
       <c r="I48" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1">
+      <c r="K48" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="38">
         <v>9988421</v>
       </c>
@@ -2233,8 +2525,15 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="11">
+        <v>32</v>
+      </c>
+      <c r="K49" s="51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="B50" s="22" t="s">
         <v>13</v>
       </c>
@@ -2242,8 +2541,9 @@
         <f>SUM(H3:H49)</f>
         <v>6981.6799999999994</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <f>H50+Бердянск!H50+Донецк!H50</f>
         <v>12867.919999999998</v>
@@ -2251,7 +2551,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A2:I50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:J50" xr:uid="{52F37E8F-FCA7-4B8C-B77B-5CC0E4B78867}"/>
   <pageMargins left="0" right="0" top="0.1388888888888889" bottom="0.1388888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2263,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2281,10 +2581,12 @@
     <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="49"/>
+    <col min="12" max="12" width="20.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25">
+    <row r="1" spans="1:12" ht="38.25">
       <c r="B1" s="16" t="s">
         <v>67</v>
       </c>
@@ -2299,8 +2601,14 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>6159826</v>
       </c>
@@ -2353,8 +2661,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="49">
+        <f>D3+E3-J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10">
         <v>5038435</v>
       </c>
@@ -2378,8 +2690,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1">
+        <v>1110</v>
+      </c>
+      <c r="K4" s="50">
+        <f t="shared" ref="K4:K49" si="0">D4+E4-J4</f>
+        <v>-1110</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="43">
         <v>8785204</v>
       </c>
@@ -2405,8 +2727,12 @@
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <v>6159796</v>
       </c>
@@ -2430,8 +2756,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="43">
         <v>5038459</v>
       </c>
@@ -2457,8 +2787,15 @@
         <v>180</v>
       </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>1010</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="46">
         <v>5038596</v>
       </c>
@@ -2486,8 +2823,15 @@
       <c r="I8" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>208</v>
+      </c>
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="41">
         <v>5521103</v>
       </c>
@@ -2511,8 +2855,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="45">
         <v>5038411</v>
       </c>
@@ -2538,8 +2886,15 @@
         <v>198</v>
       </c>
       <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>1100</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="38">
         <v>5038572</v>
       </c>
@@ -2567,8 +2922,15 @@
       <c r="I11" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1">
+        <v>179</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="24">
         <v>6159833</v>
       </c>
@@ -2592,8 +2954,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="30">
         <v>3350128</v>
       </c>
@@ -2619,8 +2985,15 @@
         <v>189.60000000000002</v>
       </c>
       <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <v>948</v>
+      </c>
+      <c r="K13" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="24">
         <v>2700001</v>
       </c>
@@ -2646,8 +3019,12 @@
       <c r="I14" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="24">
         <v>6159819</v>
       </c>
@@ -2671,8 +3048,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="24">
         <v>99876543</v>
       </c>
@@ -2696,8 +3077,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="24">
         <v>6159802</v>
       </c>
@@ -2721,8 +3106,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="24">
         <v>99876550</v>
       </c>
@@ -2746,8 +3135,12 @@
         <v>0</v>
       </c>
       <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="24">
         <v>6159949</v>
       </c>
@@ -2775,8 +3168,15 @@
       <c r="I19" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1">
+        <v>25</v>
+      </c>
+      <c r="K19" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="24">
         <v>6159901</v>
       </c>
@@ -2802,8 +3202,12 @@
       <c r="I20" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="24">
         <v>99876321</v>
       </c>
@@ -2827,8 +3231,12 @@
         <v>0</v>
       </c>
       <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="24">
         <v>99876352</v>
       </c>
@@ -2852,8 +3260,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1">
+      <c r="K22" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1">
       <c r="A23" s="24">
         <v>783798</v>
       </c>
@@ -2879,8 +3291,15 @@
         <v>7.2</v>
       </c>
       <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1">
+      <c r="J23" s="11">
+        <v>36</v>
+      </c>
+      <c r="K23" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1">
       <c r="A24" s="24">
         <v>783811</v>
       </c>
@@ -2908,8 +3327,16 @@
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1">
+      <c r="J24" s="48"/>
+      <c r="K24" s="53">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1">
       <c r="A25" s="24">
         <v>783804</v>
       </c>
@@ -2935,8 +3362,15 @@
         <v>50.400000000000006</v>
       </c>
       <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1">
+      <c r="J25" s="11">
+        <v>252</v>
+      </c>
+      <c r="K25" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1">
       <c r="A26" s="24">
         <v>783828</v>
       </c>
@@ -2964,8 +3398,18 @@
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1">
+      <c r="J26" s="48">
+        <v>800</v>
+      </c>
+      <c r="K26" s="53">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1">
       <c r="A27" s="38">
         <v>8784474</v>
       </c>
@@ -2991,8 +3435,12 @@
       <c r="I27" s="42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1">
+      <c r="K27" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1">
       <c r="A28" s="24">
         <v>9877076</v>
       </c>
@@ -3007,19 +3455,26 @@
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="35">
-        <f t="shared" ref="F28:F36" si="0">D28/C28</f>
+        <f t="shared" ref="F28:F36" si="1">D28/C28</f>
         <v>94</v>
       </c>
       <c r="G28" s="25">
         <v>0.19</v>
       </c>
       <c r="H28" s="28">
-        <f t="shared" ref="H28:H36" si="1">G28*D28</f>
+        <f t="shared" ref="H28:H36" si="2">G28*D28</f>
         <v>142.88</v>
       </c>
       <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1">
+      <c r="J28" s="11">
+        <v>752</v>
+      </c>
+      <c r="K28" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1">
       <c r="A29" s="24">
         <v>8444194</v>
       </c>
@@ -3032,19 +3487,23 @@
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="25">
         <v>0.1</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1">
+      <c r="K29" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="11" customFormat="1">
       <c r="A30" s="24">
         <v>8444187</v>
       </c>
@@ -3059,19 +3518,27 @@
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="G30" s="25">
         <v>0.1</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.800000000000011</v>
       </c>
       <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1">
+      <c r="J30" s="48"/>
+      <c r="K30" s="53">
+        <f t="shared" si="0"/>
+        <v>798</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="11" customFormat="1">
       <c r="A31" s="24">
         <v>8444163</v>
       </c>
@@ -3086,19 +3553,26 @@
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G31" s="25">
         <v>0.1</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1">
+      <c r="J31" s="11">
+        <v>56</v>
+      </c>
+      <c r="K31" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="11" customFormat="1">
       <c r="A32" s="24">
         <v>8444170</v>
       </c>
@@ -3111,19 +3585,23 @@
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="25">
         <v>0.1</v>
       </c>
       <c r="H32" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1">
+      <c r="K32" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1">
       <c r="A33" s="24">
         <v>9988377</v>
       </c>
@@ -3136,19 +3614,23 @@
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="25">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1">
+      <c r="K33" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1">
       <c r="A34" s="24">
         <v>9988391</v>
       </c>
@@ -3163,19 +3645,26 @@
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G34" s="25">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.56</v>
       </c>
       <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1">
+      <c r="J34" s="11">
+        <v>304</v>
+      </c>
+      <c r="K34" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1">
       <c r="A35" s="24">
         <v>5034819</v>
       </c>
@@ -3188,19 +3677,23 @@
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="25">
         <v>0.18</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1">
+      <c r="K35" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1">
       <c r="A36" s="24">
         <v>5034864</v>
       </c>
@@ -3213,19 +3706,23 @@
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="25">
         <v>0.18</v>
       </c>
       <c r="H36" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" s="11" customFormat="1">
+      <c r="K36" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1">
       <c r="A37" s="24">
         <v>5037308</v>
       </c>
@@ -3251,8 +3748,12 @@
       <c r="I37" s="35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1">
+      <c r="K37" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1">
       <c r="A38" s="38">
         <v>2981244</v>
       </c>
@@ -3278,8 +3779,12 @@
       <c r="I38" s="35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="11" customFormat="1">
+      <c r="K38" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1">
       <c r="A39" s="24">
         <v>3402729</v>
       </c>
@@ -3303,8 +3808,12 @@
         <v>0</v>
       </c>
       <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1">
+      <c r="K39" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1">
       <c r="A40" s="24">
         <v>3402712</v>
       </c>
@@ -3328,8 +3837,12 @@
         <v>0</v>
       </c>
       <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1">
+      <c r="K40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1">
       <c r="A41" s="24">
         <v>8785198</v>
       </c>
@@ -3355,8 +3868,12 @@
       <c r="I41" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1">
+      <c r="K41" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1">
       <c r="A42" s="24">
         <v>8785211</v>
       </c>
@@ -3382,8 +3899,12 @@
       <c r="I42" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1">
+      <c r="K42" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1">
       <c r="A43" s="24">
         <v>8785228</v>
       </c>
@@ -3409,8 +3930,12 @@
       <c r="I43" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="11" customFormat="1">
+      <c r="K43" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1">
       <c r="A44" s="38">
         <v>9988452</v>
       </c>
@@ -3434,8 +3959,12 @@
         <v>0</v>
       </c>
       <c r="I44" s="35"/>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1">
+      <c r="K44" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1">
       <c r="A45" s="38">
         <v>9988476</v>
       </c>
@@ -3459,8 +3988,12 @@
         <v>0</v>
       </c>
       <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" s="11" customFormat="1">
+      <c r="K45" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1">
       <c r="A46" s="38">
         <v>9988438</v>
       </c>
@@ -3484,8 +4017,12 @@
         <v>0</v>
       </c>
       <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" s="11" customFormat="1">
+      <c r="K46" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1">
       <c r="A47" s="38">
         <v>9988445</v>
       </c>
@@ -3509,8 +4046,12 @@
         <v>0</v>
       </c>
       <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" s="11" customFormat="1">
+      <c r="K47" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1">
       <c r="A48" s="38">
         <v>8785259</v>
       </c>
@@ -3536,8 +4077,12 @@
       <c r="I48" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1">
+      <c r="K48" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="38">
         <v>9988421</v>
       </c>
@@ -3561,8 +4106,12 @@
         <v>0</v>
       </c>
       <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="B50" s="22" t="s">
         <v>13</v>
       </c>
@@ -3579,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3597,10 +4146,12 @@
     <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="49"/>
+    <col min="12" max="12" width="21.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25">
+    <row r="1" spans="1:12" ht="38.25">
       <c r="B1" s="16" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +4166,14 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +4202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>6159826</v>
       </c>
@@ -3669,8 +4226,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="49">
+        <f>D3+E3-J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10">
         <v>5038435</v>
       </c>
@@ -3694,8 +4255,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1">
+        <v>1110</v>
+      </c>
+      <c r="K4" s="50">
+        <f t="shared" ref="K4:K49" si="0">D4+E4-J4</f>
+        <v>-1110</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="43">
         <v>8785204</v>
       </c>
@@ -3723,8 +4294,15 @@
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1">
+        <v>237</v>
+      </c>
+      <c r="K5" s="49">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <v>6159796</v>
       </c>
@@ -3748,8 +4326,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="43">
         <v>5038459</v>
       </c>
@@ -3775,8 +4357,15 @@
         <v>54</v>
       </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <v>300</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="46">
         <v>5038596</v>
       </c>
@@ -3802,8 +4391,12 @@
       <c r="I8" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="41">
         <v>5521103</v>
       </c>
@@ -3827,8 +4420,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="45">
         <v>5038411</v>
       </c>
@@ -3854,8 +4451,15 @@
         <v>54</v>
       </c>
       <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <v>300</v>
+      </c>
+      <c r="K10" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="38">
         <v>5038572</v>
       </c>
@@ -3881,8 +4485,12 @@
       <c r="I11" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="24">
         <v>6159833</v>
       </c>
@@ -3906,8 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="30">
         <v>3350128</v>
       </c>
@@ -3931,8 +4543,12 @@
         <v>0</v>
       </c>
       <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="24">
         <v>2700001</v>
       </c>
@@ -3958,8 +4574,12 @@
       <c r="I14" s="28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="24">
         <v>6159819</v>
       </c>
@@ -3983,8 +4603,12 @@
         <v>0</v>
       </c>
       <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="24">
         <v>99876543</v>
       </c>
@@ -4008,8 +4632,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="24">
         <v>6159802</v>
       </c>
@@ -4033,8 +4661,12 @@
         <v>0</v>
       </c>
       <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="24">
         <v>99876550</v>
       </c>
@@ -4058,8 +4690,12 @@
         <v>0</v>
       </c>
       <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="24">
         <v>6159949</v>
       </c>
@@ -4085,8 +4721,12 @@
       <c r="I19" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="24">
         <v>6159901</v>
       </c>
@@ -4114,8 +4754,15 @@
       <c r="I20" s="28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1">
+        <v>136</v>
+      </c>
+      <c r="K20" s="49">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="24">
         <v>99876321</v>
       </c>
@@ -4139,8 +4786,12 @@
         <v>0</v>
       </c>
       <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="24">
         <v>99876352</v>
       </c>
@@ -4164,8 +4815,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1">
+      <c r="K22" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1">
       <c r="A23" s="24">
         <v>783798</v>
       </c>
@@ -4189,8 +4844,12 @@
         <v>0</v>
       </c>
       <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1">
+      <c r="K23" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1">
       <c r="A24" s="24">
         <v>783811</v>
       </c>
@@ -4218,8 +4877,16 @@
       <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1">
+      <c r="J24" s="11">
+        <f>321+513</f>
+        <v>834</v>
+      </c>
+      <c r="K24" s="50">
+        <f t="shared" si="0"/>
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1">
       <c r="A25" s="24">
         <v>783804</v>
       </c>
@@ -4243,8 +4910,12 @@
         <v>0</v>
       </c>
       <c r="I25" s="35"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1">
+      <c r="K25" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1">
       <c r="A26" s="24">
         <v>783828</v>
       </c>
@@ -4272,8 +4943,16 @@
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1">
+      <c r="J26" s="11">
+        <f>713+1020</f>
+        <v>1733</v>
+      </c>
+      <c r="K26" s="49">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1">
       <c r="A27" s="38">
         <v>8784474</v>
       </c>
@@ -4299,8 +4978,12 @@
       <c r="I27" s="42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1">
+      <c r="K27" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1">
       <c r="A28" s="24">
         <v>9877076</v>
       </c>
@@ -4313,19 +4996,23 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="35">
-        <f t="shared" ref="F28:F36" si="0">D28/C28</f>
+        <f t="shared" ref="F28:F36" si="1">D28/C28</f>
         <v>0</v>
       </c>
       <c r="G28" s="25">
         <v>0.19</v>
       </c>
       <c r="H28" s="28">
-        <f t="shared" ref="H28:H36" si="1">G28*D28</f>
+        <f t="shared" ref="H28:H36" si="2">G28*D28</f>
         <v>0</v>
       </c>
       <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1">
+      <c r="K28" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1">
       <c r="A29" s="24">
         <v>8444194</v>
       </c>
@@ -4338,19 +5025,23 @@
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="25">
         <v>0.1</v>
       </c>
       <c r="H29" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="35"/>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1">
+      <c r="K29" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1">
       <c r="A30" s="24">
         <v>8444187</v>
       </c>
@@ -4363,19 +5054,23 @@
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="25">
         <v>0.1</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="35"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1">
+      <c r="K30" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1">
       <c r="A31" s="24">
         <v>8444163</v>
       </c>
@@ -4388,19 +5083,23 @@
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="25">
         <v>0.1</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="35"/>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1">
+      <c r="K31" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1">
       <c r="A32" s="24">
         <v>8444170</v>
       </c>
@@ -4413,19 +5112,23 @@
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="25">
         <v>0.1</v>
       </c>
       <c r="H32" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1">
+      <c r="K32" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1">
       <c r="A33" s="24">
         <v>9988377</v>
       </c>
@@ -4438,19 +5141,23 @@
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="25">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1">
+      <c r="K33" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1">
       <c r="A34" s="24">
         <v>9988391</v>
       </c>
@@ -4463,19 +5170,23 @@
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
       <c r="F34" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" s="25">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I34" s="35"/>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1">
+      <c r="K34" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1">
       <c r="A35" s="24">
         <v>5034819</v>
       </c>
@@ -4490,19 +5201,26 @@
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G35" s="25">
         <v>0.18</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.2</v>
       </c>
       <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1">
+      <c r="J35" s="11">
+        <v>90</v>
+      </c>
+      <c r="K35" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1">
       <c r="A36" s="24">
         <v>5034864</v>
       </c>
@@ -4515,19 +5233,23 @@
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="25">
         <v>0.18</v>
       </c>
       <c r="H36" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" s="11" customFormat="1">
+      <c r="K36" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1">
       <c r="A37" s="24">
         <v>5037308</v>
       </c>
@@ -4553,8 +5275,12 @@
       <c r="I37" s="35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1">
+      <c r="K37" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1">
       <c r="A38" s="38">
         <v>2981244</v>
       </c>
@@ -4580,8 +5306,12 @@
       <c r="I38" s="35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="11" customFormat="1">
+      <c r="K38" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1">
       <c r="A39" s="24">
         <v>3402729</v>
       </c>
@@ -4605,8 +5335,12 @@
         <v>0</v>
       </c>
       <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1">
+      <c r="K39" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1">
       <c r="A40" s="24">
         <v>3402712</v>
       </c>
@@ -4630,8 +5364,12 @@
         <v>0</v>
       </c>
       <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1">
+      <c r="K40" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1">
       <c r="A41" s="24">
         <v>8785198</v>
       </c>
@@ -4657,8 +5395,12 @@
       <c r="I41" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1">
+      <c r="K41" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1">
       <c r="A42" s="24">
         <v>8785211</v>
       </c>
@@ -4684,8 +5426,12 @@
       <c r="I42" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1">
+      <c r="K42" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1">
       <c r="A43" s="24">
         <v>8785228</v>
       </c>
@@ -4711,8 +5457,12 @@
       <c r="I43" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="11" customFormat="1">
+      <c r="K43" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1">
       <c r="A44" s="38">
         <v>9988452</v>
       </c>
@@ -4736,8 +5486,12 @@
         <v>0</v>
       </c>
       <c r="I44" s="35"/>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1">
+      <c r="K44" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1">
       <c r="A45" s="38">
         <v>9988476</v>
       </c>
@@ -4761,8 +5515,12 @@
         <v>0</v>
       </c>
       <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="1:9" s="11" customFormat="1">
+      <c r="K45" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1">
       <c r="A46" s="38">
         <v>9988438</v>
       </c>
@@ -4786,8 +5544,12 @@
         <v>0</v>
       </c>
       <c r="I46" s="35"/>
-    </row>
-    <row r="47" spans="1:9" s="11" customFormat="1">
+      <c r="K46" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1">
       <c r="A47" s="38">
         <v>9988445</v>
       </c>
@@ -4811,8 +5573,12 @@
         <v>0</v>
       </c>
       <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:9" s="11" customFormat="1">
+      <c r="K47" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1">
       <c r="A48" s="38">
         <v>8785259</v>
       </c>
@@ -4838,8 +5604,12 @@
       <c r="I48" s="35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1">
+      <c r="K48" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="38">
         <v>9988421</v>
       </c>
@@ -4863,8 +5633,12 @@
         <v>0</v>
       </c>
       <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="B50" s="22" t="s">
         <v>13</v>
       </c>
